--- a/多协议桌面充电站3.0下层BOM（价格估算）.xlsx
+++ b/多协议桌面充电站3.0下层BOM（价格估算）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaly\Desktop\桌面充电站3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA288D15-EBE5-4230-B76D-AEB4831F25AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB91E5DD-EEB4-4DF4-AFBB-33BCD297BF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="359">
   <si>
     <t>多协议桌面充电站3.0下层BOM</t>
   </si>
@@ -70,36 +70,9 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Manufacturer Part</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Supplier Part</t>
-  </si>
-  <si>
     <t>10kΩ</t>
   </si>
   <si>
-    <t>R8, R54, R56, R73</t>
-  </si>
-  <si>
     <t>R0603</t>
   </si>
   <si>
@@ -169,9 +142,6 @@
     <t>0.66(100)</t>
   </si>
   <si>
-    <t>R77, R78, R79</t>
-  </si>
-  <si>
     <t>33.2kΩ</t>
   </si>
   <si>
@@ -271,9 +241,6 @@
     <t>10mΩ</t>
   </si>
   <si>
-    <t>R32, R45, R46</t>
-  </si>
-  <si>
     <t>RES-SMD_L6.4-W3.2-R2512</t>
   </si>
   <si>
@@ -289,9 +256,6 @@
     <t>20mΩ</t>
   </si>
   <si>
-    <t>R17, R19, R72</t>
-  </si>
-  <si>
     <t>RES-SMD_L6.4-W3.2_LR2512D-3W-1MR</t>
   </si>
   <si>
@@ -307,12 +271,6 @@
     <t>3.16(10)</t>
   </si>
   <si>
-    <t>1UF</t>
-  </si>
-  <si>
-    <t>C9, C10, C11, C22, C70, C80</t>
-  </si>
-  <si>
     <t>C0603</t>
   </si>
   <si>
@@ -343,9 +301,6 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>C12, C31, C33, C34, C35, C45, C47, C48, C49</t>
-  </si>
-  <si>
     <t>CL10A105KB8NNNC</t>
   </si>
   <si>
@@ -421,9 +376,6 @@
     <t>C1206</t>
   </si>
   <si>
-    <t>10uF 耐压35V及以上</t>
-  </si>
-  <si>
     <t>CL31A106KBHNNNE</t>
   </si>
   <si>
@@ -433,9 +385,6 @@
     <t>C61, C67, C68</t>
   </si>
   <si>
-    <t>22uF 耐压25V及以上</t>
-  </si>
-  <si>
     <t>CL31A226KAHNNNE</t>
   </si>
   <si>
@@ -484,9 +433,6 @@
     <t>C1210</t>
   </si>
   <si>
-    <t>100uF 耐压35V及以上</t>
-  </si>
-  <si>
     <t>10uH</t>
   </si>
   <si>
@@ -853,15 +799,6 @@
     <t>14.8(1)</t>
   </si>
   <si>
-    <t>CQ-USB- TYPE-C 16P</t>
-  </si>
-  <si>
-    <t>USB5</t>
-  </si>
-  <si>
-    <t>USB-C-SMD_CQ-USB-TYPE-C</t>
-  </si>
-  <si>
     <t>TSA002A3512A02</t>
   </si>
   <si>
@@ -977,9 +914,6 @@
   </si>
   <si>
     <t>U262-161N-4BVC11</t>
-  </si>
-  <si>
-    <t>USB1, USB2, USB3, USB4, USB6</t>
   </si>
   <si>
     <t>USB-3.1-SMD_U262-161N-4BVC11</t>
@@ -1107,15 +1041,135 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>470uF</t>
+    <t>数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>220uF</t>
+    <t>名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>100uF</t>
+    <t>位号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>料号或注释</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂商</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价（数量）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值或注释</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8, R54, R56, R73，R77, R78, R79</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12, C31, C33, C34, C35, C45, C47, C48, C49，C9, C10, C11, C22, C70, C80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB1, USB2, USB3, USB4,USB5, USB6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASH大于等于8MB均可</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTC100K B3950</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉立创</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.31（1）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳极氧化+UV打印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101.9(2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉立创定制铝型材外壳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数更好或相同均可</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100uF - 固态电容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>220uF - 固态电容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>470uF - 固态电容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100uF - MLCC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐压35V及以上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uF - 耐压35V及以上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22uF - 耐压25V及以上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R17, R72</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R19, R32, R45, R46</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Time: 2025.5.6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1198,7 +1252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1266,37 +1320,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1307,6 +1455,33 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,6 +1493,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2694,2309 +2884,2398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G34" sqref="G33:G34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="47" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="7" customWidth="1"/>
-    <col min="9" max="11" width="14.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="16.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="47" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="6" customWidth="1"/>
+    <col min="9" max="11" width="14.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="26" t="s">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="8" t="s">
+      <c r="F1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" cm="1">
+      <c r="B6" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" cm="1">
         <f t="array" ref="A7">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="20">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" cm="1">
+      <c r="C7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="22">
+        <v>2.82</v>
+      </c>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" cm="1">
         <f t="array" ref="A8">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="16">
-        <v>15</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" cm="1">
+      <c r="B8" s="20">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" cm="1">
         <f t="array" ref="A9">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="16">
-        <v>2</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" cm="1">
+      <c r="B9" s="20">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="22">
+        <v>3.16</v>
+      </c>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" cm="1">
         <f t="array" ref="A10">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="16">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" cm="1">
+      <c r="B10" s="20">
+        <v>11</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" cm="1">
         <f t="array" ref="A11">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="16">
-        <v>6</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="B11" s="20">
+        <v>15</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" cm="1">
+      <c r="K11" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" cm="1">
         <f t="array" ref="A12">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="16">
-        <v>3</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="20">
+        <v>2</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" cm="1">
+      <c r="J12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0.69</v>
+      </c>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" cm="1">
         <f t="array" ref="A13">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="16">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" cm="1">
+      <c r="B13" s="20">
+        <v>2</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="1:12" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" cm="1">
         <f t="array" ref="A14">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="16">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="20">
+        <v>11</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="H14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="16">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" cm="1">
+      <c r="K14" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" cm="1">
         <f t="array" ref="A15">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="16">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="16">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" cm="1">
+      <c r="B15" s="20">
+        <v>6</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0.66</v>
+      </c>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" cm="1">
         <f t="array" ref="A16">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="16">
-        <v>11</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" cm="1">
+      <c r="B16" s="20">
+        <v>4</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0</v>
+      </c>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" cm="1">
         <f t="array" ref="A17">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="16">
-        <v>11</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" cm="1">
+      <c r="B17" s="20">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" cm="1">
         <f t="array" ref="A18">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="16">
-        <v>4</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="16">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" cm="1">
+      <c r="B18" s="20">
+        <v>2</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="25">
+        <v>0</v>
+      </c>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" cm="1">
         <f t="array" ref="A19">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="16">
-        <v>3</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" cm="1">
-        <f t="array" ref="A20">ROW()-6</f>
-        <v>14</v>
-      </c>
-      <c r="B20" s="16">
-        <v>3</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="16">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" cm="1">
+      <c r="B19" s="20">
+        <v>1</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="21" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" cm="1">
         <f t="array" ref="A21">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="16">
-        <v>6</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" cm="1">
+      <c r="B21" s="20">
+        <v>1</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0</v>
+      </c>
+      <c r="L21" s="23"/>
+    </row>
+    <row r="22" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" cm="1">
         <f t="array" ref="A22">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="16">
-        <v>7</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="20">
+        <v>4</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="J22" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" cm="1">
+      <c r="K22" s="22">
+        <v>3.42</v>
+      </c>
+      <c r="L22" s="23"/>
+    </row>
+    <row r="23" spans="1:12" s="24" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" cm="1">
         <f t="array" ref="A23">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="16">
-        <v>1</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" cm="1">
+      <c r="B23" s="20">
+        <v>7</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="25">
+        <v>0</v>
+      </c>
+      <c r="L23" s="23"/>
+    </row>
+    <row r="24" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" cm="1">
         <f t="array" ref="A24">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="20">
+        <v>15</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" cm="1">
+      <c r="K24" s="25">
+        <v>0</v>
+      </c>
+      <c r="L24" s="23"/>
+    </row>
+    <row r="25" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" cm="1">
         <f t="array" ref="A25">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="16">
-        <v>4</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="17" t="s">
+      <c r="B25" s="20">
+        <v>5</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" s="16">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" cm="1">
+      <c r="D25" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="22">
+        <v>3.88</v>
+      </c>
+      <c r="L25" s="23"/>
+    </row>
+    <row r="26" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" cm="1">
         <f t="array" ref="A26">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="16">
-        <v>5</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" s="16">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" cm="1">
+      <c r="B26" s="20">
+        <v>2</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="22">
+        <v>1.41</v>
+      </c>
+      <c r="L26" s="23"/>
+    </row>
+    <row r="27" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" cm="1">
         <f t="array" ref="A27">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="20">
         <v>2</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="22">
+        <v>1.55</v>
+      </c>
+      <c r="L27" s="23"/>
+    </row>
+    <row r="28" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>22</v>
+      </c>
+      <c r="B28" s="20">
+        <v>4</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0</v>
+      </c>
+      <c r="L28" s="23"/>
+    </row>
+    <row r="29" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>23</v>
+      </c>
+      <c r="B29" s="20">
+        <v>3</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="E29" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="G29" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="H29" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="K27" s="16">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" cm="1">
-        <f t="array" ref="A28">ROW()-6</f>
-        <v>22</v>
-      </c>
-      <c r="B28" s="16">
-        <v>2</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K28" s="16">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" cm="1">
-        <f t="array" ref="A29">ROW()-6</f>
-        <v>23</v>
-      </c>
-      <c r="B29" s="16">
-        <v>4</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="18"/>
-    </row>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" cm="1">
+      <c r="J29" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="25">
+        <v>0</v>
+      </c>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" cm="1">
         <f t="array" ref="A30">ROW()-6</f>
         <v>24</v>
       </c>
-      <c r="B30" s="16">
-        <v>3</v>
-      </c>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="20">
+        <v>4</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="G30" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" cm="1">
+      <c r="H30" s="26"/>
+      <c r="I30" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="25">
+        <v>0</v>
+      </c>
+      <c r="L30" s="23"/>
+    </row>
+    <row r="31" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" cm="1">
         <f t="array" ref="A31">ROW()-6</f>
         <v>25</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="20">
         <v>5</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" cm="1">
+      <c r="C31" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="25">
+        <v>0</v>
+      </c>
+      <c r="L31" s="23"/>
+    </row>
+    <row r="32" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" cm="1">
         <f t="array" ref="A32">ROW()-6</f>
         <v>26</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="20">
         <v>1</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" cm="1">
+      <c r="C32" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="25">
+        <v>0</v>
+      </c>
+      <c r="L32" s="23"/>
+    </row>
+    <row r="33" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" cm="1">
         <f t="array" ref="A33">ROW()-6</f>
         <v>27</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="20">
         <v>2</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="K33" s="16">
+      <c r="C33" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K33" s="22">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" cm="1">
-        <f t="array" ref="A34">ROW()-6</f>
-        <v>28</v>
-      </c>
-      <c r="B34" s="16">
-        <v>4</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="18"/>
-    </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" cm="1">
+      <c r="L33" s="23"/>
+    </row>
+    <row r="35" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" cm="1">
         <f t="array" ref="A35">ROW()-6</f>
         <v>29</v>
       </c>
-      <c r="B35" s="16">
-        <v>2</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="17" t="s">
+      <c r="B35" s="20">
+        <v>1</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="J35" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="K35" s="16">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" cm="1">
+      <c r="H35" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" s="22">
+        <v>4.32</v>
+      </c>
+      <c r="L35" s="23"/>
+    </row>
+    <row r="36" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" cm="1">
         <f t="array" ref="A36">ROW()-6</f>
         <v>30</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="20">
         <v>1</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="18"/>
-    </row>
-    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" cm="1">
+      <c r="C36" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="25">
+        <v>0</v>
+      </c>
+      <c r="L36" s="23"/>
+    </row>
+    <row r="37" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" cm="1">
         <f t="array" ref="A37">ROW()-6</f>
         <v>31</v>
       </c>
-      <c r="B37" s="16">
-        <v>1</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="K37" s="16">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" cm="1">
+      <c r="B37" s="20">
+        <v>2</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" s="22">
+        <v>7.25</v>
+      </c>
+      <c r="L37" s="23"/>
+    </row>
+    <row r="38" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" cm="1">
         <f t="array" ref="A38">ROW()-6</f>
         <v>32</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="20">
         <v>1</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="K38" s="16">
+      <c r="C38" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K38" s="22">
         <v>5.31</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" cm="1">
-        <f t="array" ref="A39">ROW()-6</f>
-        <v>33</v>
-      </c>
-      <c r="B39" s="16">
-        <v>1</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="18"/>
-    </row>
-    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" cm="1">
+      <c r="L38" s="23"/>
+    </row>
+    <row r="40" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" cm="1">
         <f t="array" ref="A40">ROW()-6</f>
         <v>34</v>
       </c>
-      <c r="B40" s="16">
-        <v>2</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="K40" s="16">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" cm="1">
+      <c r="B40" s="20">
+        <v>1</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="25">
+        <v>0</v>
+      </c>
+      <c r="L40" s="23"/>
+    </row>
+    <row r="41" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" cm="1">
         <f t="array" ref="A41">ROW()-6</f>
         <v>35</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="20">
         <v>1</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="18"/>
-    </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" cm="1">
+      <c r="C41" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" s="22">
+        <v>0.71</v>
+      </c>
+      <c r="L41" s="23"/>
+    </row>
+    <row r="42" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" cm="1">
         <f t="array" ref="A42">ROW()-6</f>
         <v>36</v>
       </c>
-      <c r="B42" s="16">
-        <v>3</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="H42" s="17" t="s">
+      <c r="B42" s="20">
+        <v>1</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="I42" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="18"/>
-    </row>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" cm="1">
+      <c r="F42" s="26"/>
+      <c r="G42" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K42" s="22">
+        <v>3.01</v>
+      </c>
+      <c r="L42" s="23"/>
+    </row>
+    <row r="43" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" cm="1">
         <f t="array" ref="A43">ROW()-6</f>
         <v>37</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="20">
         <v>1</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="K43" s="16">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" cm="1">
-        <f t="array" ref="A44">ROW()-6</f>
-        <v>38</v>
-      </c>
-      <c r="B44" s="16">
-        <v>1</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="K44" s="16">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" cm="1">
+      <c r="C43" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K43" s="22">
+        <v>2.68</v>
+      </c>
+      <c r="L43" s="23"/>
+    </row>
+    <row r="45" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" cm="1">
         <f t="array" ref="A45">ROW()-6</f>
         <v>39</v>
       </c>
-      <c r="B45" s="16">
-        <v>1</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="K45" s="16">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" cm="1">
+      <c r="B45" s="20">
+        <v>2</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K45" s="22">
+        <v>4.34</v>
+      </c>
+      <c r="L45" s="23"/>
+    </row>
+    <row r="46" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" cm="1">
         <f t="array" ref="A46">ROW()-6</f>
         <v>40</v>
       </c>
-      <c r="B46" s="16">
-        <v>2</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="18"/>
-    </row>
-    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" cm="1">
+      <c r="B46" s="20">
+        <v>1</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="25">
+        <v>0</v>
+      </c>
+      <c r="L46" s="23"/>
+    </row>
+    <row r="47" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" cm="1">
         <f t="array" ref="A47">ROW()-6</f>
         <v>41</v>
       </c>
-      <c r="B47" s="16">
-        <v>1</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="18"/>
-    </row>
-    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" cm="1">
+      <c r="B47" s="20">
+        <v>3</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="25">
+        <v>0</v>
+      </c>
+      <c r="L47" s="23"/>
+    </row>
+    <row r="48" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" cm="1">
         <f t="array" ref="A48">ROW()-6</f>
         <v>42</v>
       </c>
-      <c r="B48" s="16">
-        <v>1</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="K48" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" cm="1">
+      <c r="B48" s="20">
+        <v>2</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="25">
+        <v>0</v>
+      </c>
+      <c r="L48" s="23"/>
+    </row>
+    <row r="49" spans="1:12" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" cm="1">
         <f t="array" ref="A49">ROW()-6</f>
         <v>43</v>
       </c>
-      <c r="B49" s="16">
-        <v>1</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="K49" s="16">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" cm="1">
-        <f t="array" ref="A50">ROW()-6</f>
-        <v>44</v>
-      </c>
-      <c r="B50" s="16">
-        <v>1</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J50" s="17" t="s">
+      <c r="B49" s="20">
+        <v>10</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K50" s="16">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" cm="1">
+      <c r="D49" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="K49" s="22">
+        <v>6</v>
+      </c>
+      <c r="L49" s="23"/>
+    </row>
+    <row r="51" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" cm="1">
         <f t="array" ref="A51">ROW()-6</f>
         <v>45</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="20">
         <v>1</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="K51" s="16">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" cm="1">
+      <c r="C51" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="26"/>
+      <c r="G51" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="25">
+        <v>0</v>
+      </c>
+      <c r="L51" s="23"/>
+    </row>
+    <row r="52" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" cm="1">
         <f t="array" ref="A52">ROW()-6</f>
         <v>46</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="20">
         <v>1</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="K52" s="16">
-        <v>4.1100000000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" cm="1">
+      <c r="C52" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H52" s="26"/>
+      <c r="I52" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K52" s="22">
+        <v>7</v>
+      </c>
+      <c r="L52" s="23"/>
+    </row>
+    <row r="53" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" cm="1">
         <f t="array" ref="A53">ROW()-6</f>
         <v>47</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="20">
         <v>1</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="K53" s="16">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" cm="1">
+      <c r="C53" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="26"/>
+      <c r="G53" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K53" s="22">
+        <v>7.65</v>
+      </c>
+      <c r="L53" s="23"/>
+    </row>
+    <row r="54" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" cm="1">
         <f t="array" ref="A54">ROW()-6</f>
         <v>48</v>
       </c>
-      <c r="B54" s="16">
-        <v>10</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J54" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="K54" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" cm="1">
+      <c r="B54" s="20">
+        <v>1</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="26"/>
+      <c r="G54" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H54" s="26"/>
+      <c r="I54" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K54" s="22">
+        <v>6.8</v>
+      </c>
+      <c r="L54" s="23"/>
+    </row>
+    <row r="55" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" cm="1">
         <f t="array" ref="A55">ROW()-6</f>
         <v>49</v>
       </c>
-      <c r="B55" s="16">
-        <v>2</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="K55" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" cm="1">
+      <c r="B55" s="20">
+        <v>1</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" s="26"/>
+      <c r="G55" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K55" s="22">
+        <v>4.54</v>
+      </c>
+      <c r="L55" s="23"/>
+    </row>
+    <row r="56" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" cm="1">
         <f t="array" ref="A56">ROW()-6</f>
         <v>50</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="20">
         <v>1</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="J56" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="K56" s="16">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" cm="1">
+      <c r="C56" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" s="26"/>
+      <c r="G56" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="K56" s="22">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="L56" s="23"/>
+    </row>
+    <row r="57" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" cm="1">
         <f t="array" ref="A57">ROW()-6</f>
         <v>51</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="20">
         <v>1</v>
       </c>
-      <c r="C57" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="K57" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" cm="1">
+      <c r="C57" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="26"/>
+      <c r="G57" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="K57" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="L57" s="23"/>
+    </row>
+    <row r="58" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" cm="1">
         <f t="array" ref="A58">ROW()-6</f>
         <v>52</v>
       </c>
-      <c r="B58" s="16">
-        <v>1</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J58" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="K58" s="16">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" cm="1">
+      <c r="B58" s="20">
+        <v>2</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="H58" s="26"/>
+      <c r="I58" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="K58" s="22">
+        <v>13</v>
+      </c>
+      <c r="L58" s="23"/>
+    </row>
+    <row r="59" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" cm="1">
         <f t="array" ref="A59">ROW()-6</f>
         <v>53</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="20">
         <v>1</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="18"/>
-    </row>
-    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" cm="1">
+      <c r="C59" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" s="26"/>
+      <c r="G59" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="K59" s="22">
+        <v>2.58</v>
+      </c>
+      <c r="L59" s="23"/>
+    </row>
+    <row r="60" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" cm="1">
         <f t="array" ref="A60">ROW()-6</f>
         <v>54</v>
       </c>
-      <c r="B60" s="16">
-        <v>2</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="J60" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="K60" s="16">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" cm="1">
+      <c r="B60" s="20">
+        <v>1</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F60" s="26"/>
+      <c r="G60" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="K60" s="22">
+        <v>4</v>
+      </c>
+      <c r="L60" s="23"/>
+    </row>
+    <row r="61" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" cm="1">
         <f t="array" ref="A61">ROW()-6</f>
         <v>55</v>
       </c>
-      <c r="B61" s="16">
-        <v>2</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="18"/>
-    </row>
-    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" cm="1">
-        <f t="array" ref="A62">ROW()-6</f>
-        <v>56</v>
-      </c>
-      <c r="B62" s="16">
-        <v>2</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="F62" s="18"/>
-      <c r="G62" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="J62" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="K62" s="16">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" cm="1">
+      <c r="B61" s="20">
+        <v>1</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H61" s="26"/>
+      <c r="I61" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="K61" s="22">
+        <v>14.8</v>
+      </c>
+      <c r="L61" s="23"/>
+    </row>
+    <row r="63" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" cm="1">
         <f t="array" ref="A63">ROW()-6</f>
         <v>57</v>
       </c>
-      <c r="B63" s="16">
-        <v>1</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="K63" s="16">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" cm="1">
+      <c r="B63" s="20">
+        <v>2</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F63" s="26"/>
+      <c r="G63" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="K63" s="22">
+        <v>2.35</v>
+      </c>
+      <c r="L63" s="23"/>
+    </row>
+    <row r="64" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" cm="1">
         <f t="array" ref="A64">ROW()-6</f>
         <v>58</v>
       </c>
-      <c r="B64" s="16">
-        <v>1</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="I64" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J64" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" cm="1">
+      <c r="B64" s="20">
+        <v>2</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F64" s="26"/>
+      <c r="G64" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="25">
+        <v>0</v>
+      </c>
+      <c r="L64" s="23"/>
+    </row>
+    <row r="65" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" cm="1">
         <f t="array" ref="A65">ROW()-6</f>
         <v>59</v>
       </c>
-      <c r="B65" s="16">
-        <v>3</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="I65" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="J65" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="K65" s="16">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" cm="1">
+      <c r="B65" s="20">
+        <v>2</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F65" s="26"/>
+      <c r="G65" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="K65" s="22">
+        <v>3.47</v>
+      </c>
+      <c r="L65" s="23"/>
+    </row>
+    <row r="66" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" cm="1">
         <f t="array" ref="A66">ROW()-6</f>
         <v>60</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="20">
         <v>1</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="I66" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J66" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="K66" s="16">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" cm="1">
+      <c r="C66" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="K66" s="22">
+        <v>3.53</v>
+      </c>
+      <c r="L66" s="23"/>
+    </row>
+    <row r="67" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" cm="1">
         <f t="array" ref="A67">ROW()-6</f>
         <v>61</v>
       </c>
-      <c r="B67" s="16">
-        <v>5</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" s="18"/>
-    </row>
-    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" cm="1">
+      <c r="B67" s="20">
+        <v>1</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F67" s="26"/>
+      <c r="G67" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="25">
+        <v>0</v>
+      </c>
+      <c r="L67" s="23"/>
+    </row>
+    <row r="68" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" cm="1">
         <f t="array" ref="A68">ROW()-6</f>
         <v>62</v>
       </c>
-      <c r="B68" s="16">
-        <v>1</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="I68" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="J68" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="K68" s="16">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" cm="1">
+      <c r="B68" s="20">
+        <v>3</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="J68" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="K68" s="22">
+        <v>3.91</v>
+      </c>
+      <c r="L68" s="23"/>
+    </row>
+    <row r="69" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" cm="1">
         <f t="array" ref="A69">ROW()-6</f>
         <v>63</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="20">
         <v>1</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="I69" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="J69" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="K69" s="16">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" cm="1">
+      <c r="C69" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F69" s="26"/>
+      <c r="G69" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J69" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="K69" s="22">
+        <v>6.4</v>
+      </c>
+      <c r="L69" s="23"/>
+    </row>
+    <row r="70" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" cm="1">
         <f t="array" ref="A70">ROW()-6</f>
         <v>64</v>
       </c>
-      <c r="B70" s="16">
-        <v>1</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="17" t="s">
+      <c r="B70" s="20">
+        <v>5</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F70" s="26"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="K70" s="16">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" cm="1">
+      <c r="I70" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" s="25">
+        <v>0</v>
+      </c>
+      <c r="L70" s="23"/>
+    </row>
+    <row r="71" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" cm="1">
         <f t="array" ref="A71">ROW()-6</f>
         <v>65</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="20">
         <v>1</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="K71" s="22">
+        <v>2.67</v>
+      </c>
+      <c r="L71" s="23"/>
+    </row>
+    <row r="72" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" cm="1">
+        <f t="array" ref="A72">ROW()-6</f>
+        <v>66</v>
+      </c>
+      <c r="B72" s="20">
+        <v>1</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="K72" s="22">
+        <v>3.79</v>
+      </c>
+      <c r="L72" s="23"/>
+    </row>
+    <row r="73" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" cm="1">
+        <f t="array" ref="A73">ROW()-6</f>
+        <v>67</v>
+      </c>
+      <c r="B73" s="20">
+        <v>1</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D73" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="K73" s="22">
+        <v>5.4</v>
+      </c>
+      <c r="L73" s="23"/>
+    </row>
+    <row r="74" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" cm="1">
+        <f t="array" ref="A74">ROW()-6</f>
+        <v>68</v>
+      </c>
+      <c r="B74" s="20">
+        <v>1</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E74" s="26"/>
+      <c r="F74" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="16" cm="1">
-        <f t="array" ref="K71">SUM(K1:K70)</f>
-        <v>160.57999999999998</v>
-      </c>
+      <c r="G74" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="K74" s="22">
+        <v>101.9</v>
+      </c>
+      <c r="L74" s="23"/>
+    </row>
+    <row r="75" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="27" cm="1">
+        <f t="array" ref="A75">ROW()-6</f>
+        <v>69</v>
+      </c>
+      <c r="B75" s="28">
+        <v>1</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" s="30"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J75" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="K75" s="34">
+        <v>1.31</v>
+      </c>
+      <c r="L75" s="35"/>
+    </row>
+    <row r="76" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18">
+        <f>SUM(K7:K75)</f>
+        <v>263.79000000000002</v>
+      </c>
+      <c r="L76" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D5"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F1:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5024,10 +5303,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -5035,10 +5314,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -5046,10 +5325,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
@@ -5057,7 +5336,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -5068,7 +5347,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -5079,7 +5358,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B6" s="5">
         <v>198</v>
@@ -5090,10 +5369,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -5101,10 +5380,10 @@
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -5112,10 +5391,10 @@
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -5123,10 +5402,10 @@
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -5134,10 +5413,10 @@
     </row>
     <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>

--- a/多协议桌面充电站3.0下层BOM（价格估算）.xlsx
+++ b/多协议桌面充电站3.0下层BOM（价格估算）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaly\Desktop\桌面充电站3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas65bdea\项目备份\桌面充电站3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB91E5DD-EEB4-4DF4-AFBB-33BCD297BF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4827C29-A0DD-4292-8A13-D2E442D2E57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2886,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3064,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>60</v>
@@ -3101,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>65</v>
